--- a/xauusd_hourly1.xlsx
+++ b/xauusd_hourly1.xlsx
@@ -4947,9 +4947,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -5046,20 +5047,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5153,10 +5158,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1506"/>
+  <dimension ref="A1:S1506"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5165,9 +5170,7 @@
     <col collapsed="false" hidden="false" max="5" min="2" style="0" width="7.82142857142857"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.515306122449"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.6734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,8 +5314,8 @@
         <v>18</v>
       </c>
       <c r="N3" s="0" t="n">
-        <f aca="false">COUNTIF(K2:K1506,"&gt;3.1")</f>
-        <v>317</v>
+        <f aca="false">COUNTIF(K2:K1506,"&gt;0.5")</f>
+        <v>1461</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>1505</v>
@@ -5364,8 +5367,8 @@
         <v>21</v>
       </c>
       <c r="N4" s="0" t="n">
-        <f aca="false">COUNTIF(L2:L1506, "&gt;3.1")</f>
-        <v>8</v>
+        <f aca="false">COUNTIF(L2:L1506, "&gt;1.14")</f>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,13 +5463,21 @@
         <v>0.430000000000064</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>1201</v>
+        <v>1461</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>200</v>
+        <v>604</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <f aca="false">N6 / $O$3</f>
+        <v>0.970764119601329</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <f aca="false">O6 / $O$3</f>
+        <v>0.401328903654485</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,13 +5523,21 @@
         <v>0.539999999999964</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>905</v>
+        <v>1201</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>70</v>
+        <v>200</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <f aca="false">N7 / $O$3</f>
+        <v>0.798006644518272</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <f aca="false">O7 / $O$3</f>
+        <v>0.132890365448505</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,13 +5583,29 @@
         <v>0.889999999999873</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>631</v>
+        <v>905</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>32</v>
+        <v>70</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <f aca="false">N8 / $O$3</f>
+        <v>0.601328903654485</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <f aca="false">O8 / $O$3</f>
+        <v>0.0465116279069768</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <f aca="false">N8 / N6</f>
+        <v>0.619438740588638</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <f aca="false">O8 / O6</f>
+        <v>0.115894039735099</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5616,17 +5651,29 @@
         <v>0.599999999999909</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>467</v>
+        <v>631</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <f aca="false">SUM(N9:O9)</f>
-        <v>485</v>
+        <v>32</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <f aca="false">N9 / $O$3</f>
+        <v>0.419269102990033</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <f aca="false">O9 / $O$3</f>
+        <v>0.0212624584717608</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <f aca="false">N9 / N7</f>
+        <v>0.525395503746878</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <f aca="false">O9 / O7</f>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,13 +5719,29 @@
         <v>0.319999999999936</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>339</v>
+        <v>467</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <f aca="false">N10 / $O$3</f>
+        <v>0.310299003322259</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <f aca="false">O10 / $O$3</f>
+        <v>0.0119601328903654</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <f aca="false">N10 / N8</f>
+        <v>0.516022099447514</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <f aca="false">O10 / O8</f>
+        <v>0.257142857142857</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,13 +5787,29 @@
         <v>1.25999999999999</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <f aca="false">N11 / $O$3</f>
+        <v>0.225249169435216</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <f aca="false">O11 / $O$3</f>
+        <v>0.00598006644518272</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <f aca="false">N11 / N9</f>
+        <v>0.537242472266244</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <f aca="false">O11 / O9</f>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,13 +5855,29 @@
         <v>0.289999999999964</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <f aca="false">N12 / $O$3</f>
+        <v>0.167441860465116</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <f aca="false">O12 / $O$3</f>
+        <v>0.000664451827242525</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <f aca="false">N12 / N10</f>
+        <v>0.539614561027837</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <f aca="false">O12 / O10</f>
+        <v>0.0555555555555556</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,20 +5923,29 @@
         <v>0</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <f aca="false">SUM(O13:P13)</f>
-        <v>160</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <f aca="false">N13 / $O$3</f>
+        <v>0.130897009966777</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <f aca="false">O13 / $O$3</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <f aca="false">N13 / N11</f>
+        <v>0.581120943952802</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <f aca="false">O13 / O11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,7 +5982,7 @@
         <f aca="false">E14 - B14</f>
         <v>-1.22999999999979</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <f aca="false">IF(H14&gt;I14, H14, I14)</f>
         <v>2.97000000000003</v>
       </c>
@@ -5887,14 +5991,24 @@
         <v>2.89999999999986</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>100</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <f aca="false">N14 / $O$3</f>
+        <v>0.0963455149501661</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <f aca="false">O14 / $O$3</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <f aca="false">N14 / N12</f>
+        <v>0.575396825396825</v>
+      </c>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
@@ -5939,11 +6053,24 @@
         <v>0</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>98</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <f aca="false">N15 / $O$3</f>
+        <v>0.0757475083056479</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <f aca="false">O15 / $O$3</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <f aca="false">N15 / N13</f>
+        <v>0.578680203045685</v>
+      </c>
+      <c r="S15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
@@ -5988,11 +6115,24 @@
         <v>1.32999999999993</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>79</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <f aca="false">N16 / $O$3</f>
+        <v>0.0651162790697674</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <f aca="false">O16 / $O$3</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <f aca="false">N16 / N14</f>
+        <v>0.675862068965517</v>
+      </c>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
@@ -6028,7 +6168,7 @@
         <f aca="false">E17 - B17</f>
         <v>-2.42000000000007</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <f aca="false">IF(H17&gt;I17, H17, I17)</f>
         <v>2.75999999999999</v>
       </c>
@@ -6037,11 +6177,21 @@
         <v>1.18000000000006</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>66</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <f aca="false">N17 / $O$3</f>
+        <v>0.0524916943521595</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="n">
+        <f aca="false">N17 / N15</f>
+        <v>0.692982456140351</v>
+      </c>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
@@ -6086,11 +6236,21 @@
         <v>0.5</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>52</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <f aca="false">N18 / $O$3</f>
+        <v>0.0438538205980067</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="n">
+        <f aca="false">N18 / N16</f>
+        <v>0.673469387755102</v>
+      </c>
+      <c r="S18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
@@ -6135,11 +6295,21 @@
         <v>0.560000000000173</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>34</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <f aca="false">N19 / $O$3</f>
+        <v>0.0345514950166113</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="n">
+        <f aca="false">N19 / N17</f>
+        <v>0.658227848101266</v>
+      </c>
+      <c r="S19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
@@ -6184,11 +6354,21 @@
         <v>0.210000000000036</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>24</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <f aca="false">N20 / $O$3</f>
+        <v>0.0225913621262458</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4" t="n">
+        <f aca="false">N20 / N18</f>
+        <v>0.515151515151515</v>
+      </c>
+      <c r="S20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
@@ -6233,11 +6413,21 @@
         <v>0.710000000000036</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>16</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <f aca="false">N21 / $O$3</f>
+        <v>0.0159468438538206</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4" t="n">
+        <f aca="false">N21 / N19</f>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="S21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
@@ -6282,11 +6472,21 @@
         <v>0.529999999999973</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P22" s="4" t="n">
+        <f aca="false">N22 / $O$3</f>
+        <v>0.0106312292358804</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4" t="n">
+        <f aca="false">N22 / N20</f>
+        <v>0.470588235294118</v>
+      </c>
+      <c r="S22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
@@ -6331,11 +6531,21 @@
         <v>0.0900000000001455</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <f aca="false">N23 / $O$3</f>
+        <v>0.00863787375415282</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4" t="n">
+        <f aca="false">N23 / N21</f>
+        <v>0.541666666666667</v>
+      </c>
+      <c r="S23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
@@ -6380,11 +6590,21 @@
         <v>0.5</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <f aca="false">N24 / $O$3</f>
+        <v>0.0053156146179402</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="n">
+        <f aca="false">N24 / N22</f>
+        <v>0.5</v>
+      </c>
+      <c r="S24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
@@ -6420,7 +6640,7 @@
         <f aca="false">E25 - B25</f>
         <v>2.11999999999989</v>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <f aca="false">IF(H25&gt;I25, H25, I25)</f>
         <v>2.72000000000003</v>
       </c>
@@ -6429,11 +6649,21 @@
         <v>0.480000000000018</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P25" s="4" t="n">
+        <f aca="false">N25 / $O$3</f>
+        <v>0.00332225913621262</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4" t="n">
+        <f aca="false">N25 / N23</f>
+        <v>0.384615384615385</v>
+      </c>
+      <c r="S25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
@@ -6478,11 +6708,21 @@
         <v>0.870000000000118</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P26" s="4" t="n">
+        <f aca="false">N26 / $O$3</f>
+        <v>0.00132890365448505</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4" t="n">
+        <f aca="false">N26 / N24</f>
+        <v>0.25</v>
+      </c>
+      <c r="S26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -6526,6 +6766,22 @@
         <f aca="false">IF(H27&lt;I27,H27, I27)</f>
         <v>1.07999999999993</v>
       </c>
+      <c r="M27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <f aca="false">N27 / $O$3</f>
+        <v>0.000664451827242525</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4" t="n">
+        <f aca="false">N27 / N25</f>
+        <v>0.2</v>
+      </c>
+      <c r="S27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -6733,7 +6989,7 @@
         <f aca="false">E32 - B32</f>
         <v>-1.3599999999999</v>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="6" t="n">
         <f aca="false">IF(H32&gt;I32, H32, I32)</f>
         <v>2.72999999999979</v>
       </c>
@@ -6862,7 +7118,7 @@
         <f aca="false">E35 - B35</f>
         <v>0.0199999999999818</v>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <f aca="false">IF(H35&gt;I35, H35, I35)</f>
         <v>2.69000000000005</v>
       </c>
@@ -6948,7 +7204,7 @@
         <f aca="false">E37 - B37</f>
         <v>-1.61000000000013</v>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <f aca="false">IF(H37&gt;I37, H37, I37)</f>
         <v>2.52000000000021</v>
       </c>
@@ -7120,7 +7376,7 @@
         <f aca="false">E41 - B41</f>
         <v>2.6099999999999</v>
       </c>
-      <c r="K41" s="6" t="n">
+      <c r="K41" s="7" t="n">
         <f aca="false">IF(H41&gt;I41, H41, I41)</f>
         <v>2.6400000000001</v>
       </c>
@@ -7464,7 +7720,7 @@
         <f aca="false">E49 - B49</f>
         <v>-2.59000000000015</v>
       </c>
-      <c r="K49" s="6" t="n">
+      <c r="K49" s="7" t="n">
         <f aca="false">IF(H49&gt;I49, H49, I49)</f>
         <v>2.81999999999994</v>
       </c>
